--- a/primes.xlsx
+++ b/primes.xlsx
@@ -2275,7 +2275,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>ancient</t>
+    <t>before_1980</t>
   </si>
   <si>
     <t>preFuji</t>

--- a/primes.xlsx
+++ b/primes.xlsx
@@ -2275,16 +2275,16 @@
     <t>2025</t>
   </si>
   <si>
-    <t>before_1980</t>
-  </si>
-  <si>
-    <t>preFuji</t>
-  </si>
-  <si>
-    <t>Fuji</t>
-  </si>
-  <si>
-    <t>PostFuji</t>
+    <t>D.before_1980</t>
+  </si>
+  <si>
+    <t>A.PreFujimori</t>
+  </si>
+  <si>
+    <t>B.Fujimori</t>
+  </si>
+  <si>
+    <t>C.PostFujimori</t>
   </si>
 </sst>
 </file>
